--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/3_fold/87.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/3_fold/87.xlsx
@@ -479,13 +479,13 @@
         <v>-13.53990455810235</v>
       </c>
       <c r="E2" t="n">
-        <v>-10.6919627525631</v>
+        <v>-10.69274829073361</v>
       </c>
       <c r="F2" t="n">
-        <v>-3.983545330279716</v>
+        <v>-4.031306051046332</v>
       </c>
       <c r="G2" t="n">
-        <v>-6.840979702394955</v>
+        <v>-6.776879787681865</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-12.52629621352439</v>
       </c>
       <c r="E3" t="n">
-        <v>-11.05057401970082</v>
+        <v>-11.05041691206672</v>
       </c>
       <c r="F3" t="n">
-        <v>-4.019509886185937</v>
+        <v>-4.076919634146907</v>
       </c>
       <c r="G3" t="n">
-        <v>-6.840809502458013</v>
+        <v>-6.785769461311396</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-11.23807875336145</v>
       </c>
       <c r="E4" t="n">
-        <v>-11.88243275765841</v>
+        <v>-11.88442278769035</v>
       </c>
       <c r="F4" t="n">
-        <v>-3.776451283929293</v>
+        <v>-3.826581711510262</v>
       </c>
       <c r="G4" t="n">
-        <v>-6.674288502614099</v>
+        <v>-6.61899970771349</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-9.798044006134322</v>
       </c>
       <c r="E5" t="n">
-        <v>-12.74038445517956</v>
+        <v>-12.7356581338537</v>
       </c>
       <c r="F5" t="n">
-        <v>-3.855777546847311</v>
+        <v>-3.919890553863244</v>
       </c>
       <c r="G5" t="n">
-        <v>-7.024023188425128</v>
+        <v>-6.960839734910958</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-8.192615795832564</v>
       </c>
       <c r="E6" t="n">
-        <v>-13.46002906548072</v>
+        <v>-13.44846856207148</v>
       </c>
       <c r="F6" t="n">
-        <v>-3.611108591341134</v>
+        <v>-3.673585060501851</v>
       </c>
       <c r="G6" t="n">
-        <v>-6.578151722847305</v>
+        <v>-6.524106696716659</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-6.486146376891678</v>
       </c>
       <c r="E7" t="n">
-        <v>-14.1513157478267</v>
+        <v>-14.13902207545832</v>
       </c>
       <c r="F7" t="n">
-        <v>-3.660597496082859</v>
+        <v>-3.730235454898</v>
       </c>
       <c r="G7" t="n">
-        <v>-6.749713259285283</v>
+        <v>-6.696466863627983</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-4.687350582666028</v>
       </c>
       <c r="E8" t="n">
-        <v>-14.77271571760354</v>
+        <v>-14.75339147860915</v>
       </c>
       <c r="F8" t="n">
-        <v>-3.489363267215924</v>
+        <v>-3.551446967291389</v>
       </c>
       <c r="G8" t="n">
-        <v>-6.424343349062707</v>
+        <v>-6.387697993408715</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-2.850040591069235</v>
       </c>
       <c r="E9" t="n">
-        <v>-15.68695122504128</v>
+        <v>-15.66617374043146</v>
       </c>
       <c r="F9" t="n">
-        <v>-3.331273710402082</v>
+        <v>-3.396093701771467</v>
       </c>
       <c r="G9" t="n">
-        <v>-6.194102111288112</v>
+        <v>-6.17831279406099</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-0.9958863450507227</v>
       </c>
       <c r="E10" t="n">
-        <v>-16.33879079892513</v>
+        <v>-16.31780383746985</v>
       </c>
       <c r="F10" t="n">
-        <v>-3.317723176960895</v>
+        <v>-3.386758889845316</v>
       </c>
       <c r="G10" t="n">
-        <v>-5.7633260708868</v>
+        <v>-5.743137739904858</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>0.835978366410567</v>
       </c>
       <c r="E11" t="n">
-        <v>-16.88595741158939</v>
+        <v>-16.85032016325421</v>
       </c>
       <c r="F11" t="n">
-        <v>-3.175684783431009</v>
+        <v>-3.23910389839633</v>
       </c>
       <c r="G11" t="n">
-        <v>-5.532652787118428</v>
+        <v>-5.510173303139184</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>2.606081418421887</v>
       </c>
       <c r="E12" t="n">
-        <v>-17.5063099971389</v>
+        <v>-17.47556927006652</v>
       </c>
       <c r="F12" t="n">
-        <v>-3.305102197021471</v>
+        <v>-3.357615423719635</v>
       </c>
       <c r="G12" t="n">
-        <v>-4.937149392362517</v>
+        <v>-4.913465416521835</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>4.293376655597661</v>
       </c>
       <c r="E13" t="n">
-        <v>-18.39792200526612</v>
+        <v>-18.37093876910933</v>
       </c>
       <c r="F13" t="n">
-        <v>-3.082415217986552</v>
+        <v>-3.13625076727173</v>
       </c>
       <c r="G13" t="n">
-        <v>-4.288897109457293</v>
+        <v>-4.267910148002006</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>5.849947756791614</v>
       </c>
       <c r="E14" t="n">
-        <v>-19.11870564591451</v>
+        <v>-19.10275922105329</v>
       </c>
       <c r="F14" t="n">
-        <v>-2.965330753672996</v>
+        <v>-3.019637625860476</v>
       </c>
       <c r="G14" t="n">
-        <v>-3.742529127266381</v>
+        <v>-3.704928033504943</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>7.267890889148489</v>
       </c>
       <c r="E15" t="n">
-        <v>-19.89048380613142</v>
+        <v>-19.8625186472615</v>
       </c>
       <c r="F15" t="n">
-        <v>-2.889264474162568</v>
+        <v>-2.946504022186594</v>
       </c>
       <c r="G15" t="n">
-        <v>-3.144446548850651</v>
+        <v>-3.10787974701371</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>8.512595993034584</v>
       </c>
       <c r="E16" t="n">
-        <v>-20.75812380775545</v>
+        <v>-20.7186374223848</v>
       </c>
       <c r="F16" t="n">
-        <v>-2.875321171636129</v>
+        <v>-2.941044531901595</v>
       </c>
       <c r="G16" t="n">
-        <v>-2.553211244821143</v>
+        <v>-2.49879963421093</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>9.58300957863834</v>
       </c>
       <c r="E17" t="n">
-        <v>-21.47442988083197</v>
+        <v>-21.43177515817362</v>
       </c>
       <c r="F17" t="n">
-        <v>-2.796112739443687</v>
+        <v>-2.861796822800626</v>
       </c>
       <c r="G17" t="n">
-        <v>-2.132202062339758</v>
+        <v>-2.078497436082997</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>10.46446334680093</v>
       </c>
       <c r="E18" t="n">
-        <v>-22.38586363546157</v>
+        <v>-22.3384956837802</v>
       </c>
       <c r="F18" t="n">
-        <v>-2.697737175890957</v>
+        <v>-2.767231119374839</v>
       </c>
       <c r="G18" t="n">
-        <v>-1.896828641851207</v>
+        <v>-1.853794242410453</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>11.15369110526164</v>
       </c>
       <c r="E19" t="n">
-        <v>-23.22997676887902</v>
+        <v>-23.1810246485538</v>
       </c>
       <c r="F19" t="n">
-        <v>-2.715451061635812</v>
+        <v>-2.778961822721026</v>
       </c>
       <c r="G19" t="n">
-        <v>-1.439435949772665</v>
+        <v>-1.380101633293962</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>11.65171428511379</v>
       </c>
       <c r="E20" t="n">
-        <v>-24.0267219506151</v>
+        <v>-23.98165824423387</v>
       </c>
       <c r="F20" t="n">
-        <v>-2.495120697112404</v>
+        <v>-2.555908259206539</v>
       </c>
       <c r="G20" t="n">
-        <v>-1.195369240197207</v>
+        <v>-1.146076719998109</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>11.95588302273024</v>
       </c>
       <c r="E21" t="n">
-        <v>-24.4825042894441</v>
+        <v>-24.43150976987558</v>
       </c>
       <c r="F21" t="n">
-        <v>-2.337109694115612</v>
+        <v>-2.39526570333856</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.8052448001194539</v>
+        <v>-0.7555464185322618</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>12.07658885410275</v>
       </c>
       <c r="E22" t="n">
-        <v>-25.14497481323545</v>
+        <v>-25.09426832432944</v>
       </c>
       <c r="F22" t="n">
-        <v>-2.133995707829074</v>
+        <v>-2.183694089416266</v>
       </c>
       <c r="G22" t="n">
-        <v>-0.6385928772471228</v>
+        <v>-0.6114001642448578</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>12.01973845816183</v>
       </c>
       <c r="E23" t="n">
-        <v>-25.71294509511521</v>
+        <v>-25.66403225169852</v>
       </c>
       <c r="F23" t="n">
-        <v>-2.129845447828247</v>
+        <v>-2.178378614462526</v>
       </c>
       <c r="G23" t="n">
-        <v>-0.2756480578687927</v>
+        <v>-0.2343156577974635</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>11.80403063095669</v>
       </c>
       <c r="E24" t="n">
-        <v>-26.1508695328681</v>
+        <v>-26.10246728926224</v>
       </c>
       <c r="F24" t="n">
-        <v>-2.08192761942753</v>
+        <v>-2.122566127448247</v>
       </c>
       <c r="G24" t="n">
-        <v>-0.3120839366773164</v>
+        <v>-0.2775333494780013</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>11.44611242812438</v>
       </c>
       <c r="E25" t="n">
-        <v>-26.42726113815978</v>
+        <v>-26.37834829474309</v>
       </c>
       <c r="F25" t="n">
-        <v>-1.735439824721249</v>
+        <v>-1.774022841195816</v>
       </c>
       <c r="G25" t="n">
-        <v>-0.2888712837389361</v>
+        <v>-0.2589030025342251</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>10.97194812046489</v>
       </c>
       <c r="E26" t="n">
-        <v>-26.34742427543094</v>
+        <v>-26.29521217169813</v>
       </c>
       <c r="F26" t="n">
-        <v>-1.641856044008591</v>
+        <v>-1.672727694109381</v>
       </c>
       <c r="G26" t="n">
-        <v>-0.4481129632028502</v>
+        <v>-0.4184065280549737</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>10.40534919833199</v>
       </c>
       <c r="E27" t="n">
-        <v>-26.2829970531468</v>
+        <v>-26.21427555553058</v>
       </c>
       <c r="F27" t="n">
-        <v>-1.7173200775883</v>
+        <v>-1.746188605354307</v>
       </c>
       <c r="G27" t="n">
-        <v>-0.3957830287444711</v>
+        <v>-0.3785142812962344</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>9.77924976335154</v>
       </c>
       <c r="E28" t="n">
-        <v>-26.4400392257333</v>
+        <v>-26.38259020086381</v>
       </c>
       <c r="F28" t="n">
-        <v>-1.434041921001874</v>
+        <v>-1.463355587064498</v>
       </c>
       <c r="G28" t="n">
-        <v>-0.728628643889673</v>
+        <v>-0.7137296032557887</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>9.116684052208637</v>
       </c>
       <c r="E29" t="n">
-        <v>-26.36753405259583</v>
+        <v>-26.29697963258176</v>
       </c>
       <c r="F29" t="n">
-        <v>-1.350984351773963</v>
+        <v>-1.372979420548063</v>
       </c>
       <c r="G29" t="n">
-        <v>-0.7973632338087349</v>
+        <v>-0.7870203145637712</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>8.451272188315075</v>
       </c>
       <c r="E30" t="n">
-        <v>-26.1745273241031</v>
+        <v>-26.1105190555099</v>
       </c>
       <c r="F30" t="n">
-        <v>-1.430781937594284</v>
+        <v>-1.452659175642808</v>
       </c>
       <c r="G30" t="n">
-        <v>-0.9362856592622901</v>
+        <v>-0.9290718003964991</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>7.801766728937565</v>
       </c>
       <c r="E31" t="n">
-        <v>-25.83499154220577</v>
+        <v>-25.77368028799797</v>
       </c>
       <c r="F31" t="n">
-        <v>-1.344909523255402</v>
+        <v>-1.36521568496292</v>
       </c>
       <c r="G31" t="n">
-        <v>-1.415411574058097</v>
+        <v>-1.412452713615867</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>7.188769717813296</v>
       </c>
       <c r="E32" t="n">
-        <v>-25.85832202586973</v>
+        <v>-25.78952197443646</v>
       </c>
       <c r="F32" t="n">
-        <v>-1.180496384169006</v>
+        <v>-1.197031962658107</v>
       </c>
       <c r="G32" t="n">
-        <v>-1.716455985600747</v>
+        <v>-1.705052589825603</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>6.623667925686502</v>
       </c>
       <c r="E33" t="n">
-        <v>-25.50473820302324</v>
+        <v>-25.43926359651176</v>
       </c>
       <c r="F33" t="n">
-        <v>-1.154246316971346</v>
+        <v>-1.167220789087496</v>
       </c>
       <c r="G33" t="n">
-        <v>-2.220876229486768</v>
+        <v>-2.205937911944359</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>6.110044331843757</v>
       </c>
       <c r="E34" t="n">
-        <v>-24.94381158007232</v>
+        <v>-24.89128526107132</v>
       </c>
       <c r="F34" t="n">
-        <v>-1.178388523411489</v>
+        <v>-1.187631689217747</v>
       </c>
       <c r="G34" t="n">
-        <v>-2.321058530831656</v>
+        <v>-2.311029826854894</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>5.651628149323183</v>
       </c>
       <c r="E35" t="n">
-        <v>-24.53640530024349</v>
+        <v>-24.47658656855965</v>
       </c>
       <c r="F35" t="n">
-        <v>-1.347004291710079</v>
+        <v>-1.355029873352057</v>
       </c>
       <c r="G35" t="n">
-        <v>-2.523007302165281</v>
+        <v>-2.522300317811828</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>5.235889176077102</v>
       </c>
       <c r="E36" t="n">
-        <v>-23.88234003487654</v>
+        <v>-23.82769276281518</v>
       </c>
       <c r="F36" t="n">
-        <v>-1.345812892151482</v>
+        <v>-1.354335981301445</v>
       </c>
       <c r="G36" t="n">
-        <v>-2.70436188112887</v>
+        <v>-2.715058292550561</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>4.862681899637253</v>
       </c>
       <c r="E37" t="n">
-        <v>-23.11839107175898</v>
+        <v>-23.06815590575528</v>
       </c>
       <c r="F37" t="n">
-        <v>-1.329801005776051</v>
+        <v>-1.334566604010439</v>
       </c>
       <c r="G37" t="n">
-        <v>-2.847683320337246</v>
+        <v>-2.845942044059296</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>4.515834493171211</v>
       </c>
       <c r="E38" t="n">
-        <v>-22.72920927748583</v>
+        <v>-22.68591303198825</v>
       </c>
       <c r="F38" t="n">
-        <v>-1.403667778409069</v>
+        <v>-1.410711437337918</v>
       </c>
       <c r="G38" t="n">
-        <v>-3.16560371024288</v>
+        <v>-3.157054436487233</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>4.19233772422429</v>
       </c>
       <c r="E39" t="n">
-        <v>-22.10720706177827</v>
+        <v>-22.04675989955802</v>
       </c>
       <c r="F39" t="n">
-        <v>-1.309180628800332</v>
+        <v>-1.322822808361411</v>
       </c>
       <c r="G39" t="n">
-        <v>-3.396093701771467</v>
+        <v>-3.385659136406612</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>3.882815076263832</v>
       </c>
       <c r="E40" t="n">
-        <v>-21.61894271959894</v>
+        <v>-21.55886214185826</v>
       </c>
       <c r="F40" t="n">
-        <v>-1.47596347470108</v>
+        <v>-1.491111269088957</v>
       </c>
       <c r="G40" t="n">
-        <v>-3.627500154498975</v>
+        <v>-3.616882296894336</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>3.583354151684924</v>
       </c>
       <c r="E41" t="n">
-        <v>-21.13323137647374</v>
+        <v>-21.10550187905497</v>
       </c>
       <c r="F41" t="n">
-        <v>-1.381240663641192</v>
+        <v>-1.404427131973889</v>
       </c>
       <c r="G41" t="n">
-        <v>-3.628128585035379</v>
+        <v>-3.620076818787717</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>3.291474350028651</v>
       </c>
       <c r="E42" t="n">
-        <v>-20.33047682773331</v>
+        <v>-20.27806833945788</v>
       </c>
       <c r="F42" t="n">
-        <v>-1.104351550841528</v>
+        <v>-1.130509971919296</v>
       </c>
       <c r="G42" t="n">
-        <v>-3.743471773070985</v>
+        <v>-3.730039070355374</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>3.00118837078641</v>
       </c>
       <c r="E43" t="n">
-        <v>-19.49112929255025</v>
+        <v>-19.45849018156583</v>
       </c>
       <c r="F43" t="n">
-        <v>-1.113581624344945</v>
+        <v>-1.138522461258433</v>
       </c>
       <c r="G43" t="n">
-        <v>-3.880548183823857</v>
+        <v>-3.869524464831124</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>2.713788599052403</v>
       </c>
       <c r="E44" t="n">
-        <v>-19.06850975681933</v>
+        <v>-19.03330455447793</v>
       </c>
       <c r="F44" t="n">
-        <v>-1.130483787313613</v>
+        <v>-1.159169022839835</v>
       </c>
       <c r="G44" t="n">
-        <v>-4.109323083680178</v>
+        <v>-4.095026288977014</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>2.420271811862905</v>
       </c>
       <c r="E45" t="n">
-        <v>-18.57125100258774</v>
+        <v>-18.54648036561119</v>
       </c>
       <c r="F45" t="n">
-        <v>-1.120887129330628</v>
+        <v>-1.14828931917836</v>
       </c>
       <c r="G45" t="n">
-        <v>-4.217413135941468</v>
+        <v>-4.207986677895426</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>2.122011335910363</v>
       </c>
       <c r="E46" t="n">
-        <v>-18.10575417505017</v>
+        <v>-18.09322484123063</v>
       </c>
       <c r="F46" t="n">
-        <v>-1.085603373172176</v>
+        <v>-1.112233117152247</v>
       </c>
       <c r="G46" t="n">
-        <v>-4.343727673758442</v>
+        <v>-4.345770073001751</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>1.810884969627635</v>
       </c>
       <c r="E47" t="n">
-        <v>-17.35208266966336</v>
+        <v>-17.33051964688304</v>
       </c>
       <c r="F47" t="n">
-        <v>-1.173649109782784</v>
+        <v>-1.205044451997243</v>
       </c>
       <c r="G47" t="n">
-        <v>-4.65849281867922</v>
+        <v>-4.651527713567422</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>1.487147780712381</v>
       </c>
       <c r="E48" t="n">
-        <v>-16.51139971959045</v>
+        <v>-16.48491399094164</v>
       </c>
       <c r="F48" t="n">
-        <v>-1.10118321355383</v>
+        <v>-1.130562341130663</v>
       </c>
       <c r="G48" t="n">
-        <v>-4.600284440244906</v>
+        <v>-4.602942177721776</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>1.1469524916355</v>
       </c>
       <c r="E49" t="n">
-        <v>-15.86229643700051</v>
+        <v>-15.85497783971199</v>
       </c>
       <c r="F49" t="n">
-        <v>-1.036965468115164</v>
+        <v>-1.078088391341025</v>
       </c>
       <c r="G49" t="n">
-        <v>-4.836783798777845</v>
+        <v>-4.831992015937773</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.7893506254452898</v>
       </c>
       <c r="E50" t="n">
-        <v>-14.99152737499731</v>
+        <v>-14.97063205966192</v>
       </c>
       <c r="F50" t="n">
-        <v>-1.001066373723151</v>
+        <v>-1.035852622373617</v>
       </c>
       <c r="G50" t="n">
-        <v>-4.955164401072732</v>
+        <v>-4.954575247444855</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>0.4167255602567448</v>
       </c>
       <c r="E51" t="n">
-        <v>-14.19205899427015</v>
+        <v>-14.17701593830501</v>
       </c>
       <c r="F51" t="n">
-        <v>-1.002820742303942</v>
+        <v>-1.036454868304336</v>
       </c>
       <c r="G51" t="n">
-        <v>-5.142083208744055</v>
+        <v>-5.13778893341197</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>0.02580177307785264</v>
       </c>
       <c r="E52" t="n">
-        <v>-13.49523426782212</v>
+        <v>-13.46006834238925</v>
       </c>
       <c r="F52" t="n">
-        <v>-0.9467333169299875</v>
+        <v>-0.9828680727731515</v>
       </c>
       <c r="G52" t="n">
-        <v>-5.046443936485247</v>
+        <v>-5.037318601404563</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-0.3770229980463904</v>
       </c>
       <c r="E53" t="n">
-        <v>-12.79291077418057</v>
+        <v>-12.7620129394741</v>
       </c>
       <c r="F53" t="n">
-        <v>-0.9375556126379375</v>
+        <v>-0.9787701819836913</v>
       </c>
       <c r="G53" t="n">
-        <v>-5.124788276690135</v>
+        <v>-5.117561325521502</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-0.7942715443180215</v>
       </c>
       <c r="E54" t="n">
-        <v>-12.42434935688314</v>
+        <v>-12.39769342829738</v>
       </c>
       <c r="F54" t="n">
-        <v>-1.135786169964512</v>
+        <v>-1.175979539688611</v>
       </c>
       <c r="G54" t="n">
-        <v>-5.297030612875884</v>
+        <v>-5.287708893252574</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-1.21667885551181</v>
       </c>
       <c r="E55" t="n">
-        <v>-11.73826031876533</v>
+        <v>-11.72096538671141</v>
       </c>
       <c r="F55" t="n">
-        <v>-1.222863076164832</v>
+        <v>-1.26509884513224</v>
       </c>
       <c r="G55" t="n">
-        <v>-5.773564251709029</v>
+        <v>-5.767423961676259</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-1.644284105305305</v>
       </c>
       <c r="E56" t="n">
-        <v>-11.3163608596907</v>
+        <v>-11.29788762038103</v>
       </c>
       <c r="F56" t="n">
-        <v>-1.234240287334292</v>
+        <v>-1.279395639835405</v>
       </c>
       <c r="G56" t="n">
-        <v>-5.905875064227513</v>
+        <v>-5.900520312365247</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-2.070202985699527</v>
       </c>
       <c r="E57" t="n">
-        <v>-10.54015750111329</v>
+        <v>-10.52419798394923</v>
       </c>
       <c r="F57" t="n">
-        <v>-1.222640507016523</v>
+        <v>-1.268214813208571</v>
       </c>
       <c r="G57" t="n">
-        <v>-6.364432971258968</v>
+        <v>-6.356211005074364</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-2.489967989248723</v>
       </c>
       <c r="E58" t="n">
-        <v>-10.08182216323014</v>
+        <v>-10.05189315893396</v>
       </c>
       <c r="F58" t="n">
-        <v>-1.420871064343097</v>
+        <v>-1.470687276655865</v>
       </c>
       <c r="G58" t="n">
-        <v>-6.214696303658148</v>
+        <v>-6.199679432298687</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-2.89947974021125</v>
       </c>
       <c r="E59" t="n">
-        <v>-9.50564300746862</v>
+        <v>-9.485585599515096</v>
       </c>
       <c r="F59" t="n">
-        <v>-1.411667175445364</v>
+        <v>-1.459689742268815</v>
       </c>
       <c r="G59" t="n">
-        <v>-6.441297881242742</v>
+        <v>-6.423950579977455</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-3.289666016899949</v>
       </c>
       <c r="E60" t="n">
-        <v>-9.220427190061619</v>
+        <v>-9.196245706712951</v>
       </c>
       <c r="F60" t="n">
-        <v>-1.493075114515216</v>
+        <v>-1.537955528656653</v>
       </c>
       <c r="G60" t="n">
-        <v>-6.327748338696452</v>
+        <v>-6.305098654780266</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-3.65750588257061</v>
       </c>
       <c r="E61" t="n">
-        <v>-8.600781588865566</v>
+        <v>-8.562643710687617</v>
       </c>
       <c r="F61" t="n">
-        <v>-1.569233040145537</v>
+        <v>-1.621864097569276</v>
       </c>
       <c r="G61" t="n">
-        <v>-6.725152099154205</v>
+        <v>-6.717218163632119</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-3.991872965923469</v>
       </c>
       <c r="E62" t="n">
-        <v>-8.029080000675913</v>
+        <v>-7.988991369374547</v>
       </c>
       <c r="F62" t="n">
-        <v>-1.491176730603166</v>
+        <v>-1.53747111345151</v>
       </c>
       <c r="G62" t="n">
-        <v>-6.596284562283095</v>
+        <v>-6.582878044173168</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-4.290306157005396</v>
       </c>
       <c r="E63" t="n">
-        <v>-7.563399880898558</v>
+        <v>-7.526872355970142</v>
       </c>
       <c r="F63" t="n">
-        <v>-1.472939152744642</v>
+        <v>-1.528476701399244</v>
       </c>
       <c r="G63" t="n">
-        <v>-6.66632838248633</v>
+        <v>-6.648169358444855</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-4.544117780313715</v>
       </c>
       <c r="E64" t="n">
-        <v>-7.156870785360122</v>
+        <v>-7.107683003583757</v>
       </c>
       <c r="F64" t="n">
-        <v>-1.616928299397945</v>
+        <v>-1.669965218209777</v>
       </c>
       <c r="G64" t="n">
-        <v>-6.84002396428751</v>
+        <v>-6.824980908322367</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-4.75102583610481</v>
       </c>
       <c r="E65" t="n">
-        <v>-6.726120929564493</v>
+        <v>-6.678464947220609</v>
       </c>
       <c r="F65" t="n">
-        <v>-1.503300203034604</v>
+        <v>-1.553731753580933</v>
       </c>
       <c r="G65" t="n">
-        <v>-7.006243841166063</v>
+        <v>-7.005327379967142</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-4.907423766020114</v>
       </c>
       <c r="E66" t="n">
-        <v>-6.481334143332741</v>
+        <v>-6.438849620611339</v>
       </c>
       <c r="F66" t="n">
-        <v>-1.665029420038447</v>
+        <v>-1.711978418028876</v>
       </c>
       <c r="G66" t="n">
-        <v>-7.041671612655774</v>
+        <v>-7.035557507228688</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-5.012752574903879</v>
       </c>
       <c r="E67" t="n">
-        <v>-6.352649898701415</v>
+        <v>-6.302977701719906</v>
       </c>
       <c r="F67" t="n">
-        <v>-1.656362315557224</v>
+        <v>-1.702853082948193</v>
       </c>
       <c r="G67" t="n">
-        <v>-7.100626252352067</v>
+        <v>-7.089209764274082</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-5.068507794010075</v>
       </c>
       <c r="E68" t="n">
-        <v>-6.077947200476318</v>
+        <v>-6.027633480655565</v>
       </c>
       <c r="F68" t="n">
-        <v>-1.596530491570536</v>
+        <v>-1.630662125078916</v>
       </c>
       <c r="G68" t="n">
-        <v>-7.050810040039299</v>
+        <v>-7.047680979660127</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-5.076796084985709</v>
       </c>
       <c r="E69" t="n">
-        <v>-5.985541727019416</v>
+        <v>-5.931313408648987</v>
       </c>
       <c r="F69" t="n">
-        <v>-1.87266025080538</v>
+        <v>-1.912814343620954</v>
       </c>
       <c r="G69" t="n">
-        <v>-7.081943536196924</v>
+        <v>-7.083409874115197</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-5.042767950284737</v>
       </c>
       <c r="E70" t="n">
-        <v>-5.888946716653161</v>
+        <v>-5.827635462445357</v>
       </c>
       <c r="F70" t="n">
-        <v>-1.824546037862037</v>
+        <v>-1.860615332190992</v>
       </c>
       <c r="G70" t="n">
-        <v>-6.824941631413841</v>
+        <v>-6.822729032233589</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-4.969386104398191</v>
       </c>
       <c r="E71" t="n">
-        <v>-5.629496551238676</v>
+        <v>-5.564192144664146</v>
       </c>
       <c r="F71" t="n">
-        <v>-1.840047324426641</v>
+        <v>-1.873943296483869</v>
       </c>
       <c r="G71" t="n">
-        <v>-6.725963821930392</v>
+        <v>-6.72959038981755</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-4.863792213362995</v>
       </c>
       <c r="E72" t="n">
-        <v>-5.725423854160002</v>
+        <v>-5.650994112504789</v>
       </c>
       <c r="F72" t="n">
-        <v>-1.921285063559551</v>
+        <v>-1.954971558771312</v>
       </c>
       <c r="G72" t="n">
-        <v>-6.53943778334432</v>
+        <v>-6.548183441642593</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-4.73063681582248</v>
       </c>
       <c r="E73" t="n">
-        <v>-5.797470796698021</v>
+        <v>-5.722700655168923</v>
       </c>
       <c r="F73" t="n">
-        <v>-2.009343892473</v>
+        <v>-2.042375772542675</v>
       </c>
       <c r="G73" t="n">
-        <v>-6.37430456760163</v>
+        <v>-6.381243488107745</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-4.57762360018143</v>
       </c>
       <c r="E74" t="n">
-        <v>-5.99710223042866</v>
+        <v>-5.925827733758303</v>
       </c>
       <c r="F74" t="n">
-        <v>-1.870827328407539</v>
+        <v>-1.903544993209012</v>
       </c>
       <c r="G74" t="n">
-        <v>-6.26387099313167</v>
+        <v>-6.283182139823216</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-4.407662838283657</v>
       </c>
       <c r="E75" t="n">
-        <v>-6.153358864844661</v>
+        <v>-6.076127370381319</v>
       </c>
       <c r="F75" t="n">
-        <v>-2.135134738176304</v>
+        <v>-2.158857990925512</v>
       </c>
       <c r="G75" t="n">
-        <v>-6.120484092409087</v>
+        <v>-6.138132516639733</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-4.228209255431734</v>
       </c>
       <c r="E76" t="n">
-        <v>-6.633152487085396</v>
+        <v>-6.554637946943565</v>
       </c>
       <c r="F76" t="n">
-        <v>-2.111751885300982</v>
+        <v>-2.143684011931952</v>
       </c>
       <c r="G76" t="n">
-        <v>-5.880318889080463</v>
+        <v>-5.904736033880282</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-4.040739247721294</v>
       </c>
       <c r="E77" t="n">
-        <v>-7.089288318091132</v>
+        <v>-7.021810589244876</v>
       </c>
       <c r="F77" t="n">
-        <v>-2.165561249980476</v>
+        <v>-2.1948749160431</v>
       </c>
       <c r="G77" t="n">
-        <v>-5.939181882656864</v>
+        <v>-5.958637044679669</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-3.849174707321866</v>
       </c>
       <c r="E78" t="n">
-        <v>-7.574672353645284</v>
+        <v>-7.506343625114316</v>
       </c>
       <c r="F78" t="n">
-        <v>-2.113545530790298</v>
+        <v>-2.147153472185009</v>
       </c>
       <c r="G78" t="n">
-        <v>-5.565645390279577</v>
+        <v>-5.587627366750835</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-3.654013155606398</v>
       </c>
       <c r="E79" t="n">
-        <v>-7.96708794672034</v>
+        <v>-7.904768585193723</v>
       </c>
       <c r="F79" t="n">
-        <v>-2.154472069473534</v>
+        <v>-2.17750143017213</v>
       </c>
       <c r="G79" t="n">
-        <v>-5.404335126966671</v>
+        <v>-5.426408749557821</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-3.455117018487663</v>
       </c>
       <c r="E80" t="n">
-        <v>-8.34892495909928</v>
+        <v>-8.281159199590507</v>
       </c>
       <c r="F80" t="n">
-        <v>-2.418714017728091</v>
+        <v>-2.444715331171759</v>
       </c>
       <c r="G80" t="n">
-        <v>-5.012783625879169</v>
+        <v>-5.032081680267873</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-3.252441260848773</v>
       </c>
       <c r="E81" t="n">
-        <v>-9.251063178711258</v>
+        <v>-9.190039955165972</v>
       </c>
       <c r="F81" t="n">
-        <v>-2.341731277018742</v>
+        <v>-2.370534343270539</v>
       </c>
       <c r="G81" t="n">
-        <v>-5.003056044867766</v>
+        <v>-5.029031173705751</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-3.041657755526379</v>
       </c>
       <c r="E82" t="n">
-        <v>-9.98000332403004</v>
+        <v>-9.927961420234178</v>
       </c>
       <c r="F82" t="n">
-        <v>-2.430902951673738</v>
+        <v>-2.460557017610248</v>
       </c>
       <c r="G82" t="n">
-        <v>-4.833471446158889</v>
+        <v>-4.859053805911621</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-2.823361630817573</v>
       </c>
       <c r="E83" t="n">
-        <v>-10.73182881471616</v>
+        <v>-10.68417283237228</v>
       </c>
       <c r="F83" t="n">
-        <v>-2.506366985253447</v>
+        <v>-2.520991087527655</v>
       </c>
       <c r="G83" t="n">
-        <v>-4.506124598207212</v>
+        <v>-4.533854095625988</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-2.591694940449154</v>
       </c>
       <c r="E84" t="n">
-        <v>-11.87387039159992</v>
+        <v>-11.82299370275698</v>
       </c>
       <c r="F84" t="n">
-        <v>-2.58405671031625</v>
+        <v>-2.604978210257328</v>
       </c>
       <c r="G84" t="n">
-        <v>-4.399513976167037</v>
+        <v>-4.42919422670923</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-2.34839285509632</v>
       </c>
       <c r="E85" t="n">
-        <v>-12.68639179826028</v>
+        <v>-12.63797646235158</v>
       </c>
       <c r="F85" t="n">
-        <v>-2.727103211164949</v>
+        <v>-2.747789049654876</v>
       </c>
       <c r="G85" t="n">
-        <v>-4.032510542907771</v>
+        <v>-4.066157761211008</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-2.090234719332971</v>
       </c>
       <c r="E86" t="n">
-        <v>-13.72221552218913</v>
+        <v>-13.66904768034888</v>
       </c>
       <c r="F86" t="n">
-        <v>-2.823946975285196</v>
+        <v>-2.843415229610843</v>
       </c>
       <c r="G86" t="n">
-        <v>-3.721882565684979</v>
+        <v>-3.745265418560301</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-1.819677328489725</v>
       </c>
       <c r="E87" t="n">
-        <v>-14.71922056819225</v>
+        <v>-14.66725721821344</v>
       </c>
       <c r="F87" t="n">
-        <v>-2.859937715797102</v>
+        <v>-2.877010078702712</v>
       </c>
       <c r="G87" t="n">
-        <v>-3.268050979979386</v>
+        <v>-3.297521753676112</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-1.538805027660692</v>
       </c>
       <c r="E88" t="n">
-        <v>-16.07594972707464</v>
+        <v>-16.03544214208234</v>
       </c>
       <c r="F88" t="n">
-        <v>-2.759545937606746</v>
+        <v>-2.785809097107248</v>
       </c>
       <c r="G88" t="n">
-        <v>-3.018603333935979</v>
+        <v>-3.047039815708208</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-1.251245760273723</v>
       </c>
       <c r="E89" t="n">
-        <v>-17.50454253625526</v>
+        <v>-17.45666398476307</v>
       </c>
       <c r="F89" t="n">
-        <v>-3.004961154374901</v>
+        <v>-3.021706209709468</v>
       </c>
       <c r="G89" t="n">
-        <v>-2.753680585933652</v>
+        <v>-2.776055331490162</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-0.9648256029433848</v>
       </c>
       <c r="E90" t="n">
-        <v>-18.97406188411912</v>
+        <v>-18.92781987048215</v>
       </c>
       <c r="F90" t="n">
-        <v>-3.20057325113313</v>
+        <v>-3.220552105269604</v>
       </c>
       <c r="G90" t="n">
-        <v>-2.632013815625492</v>
+        <v>-2.648536301811751</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-0.6827779472262046</v>
       </c>
       <c r="E91" t="n">
-        <v>-20.59458785295945</v>
+        <v>-20.55799486651683</v>
       </c>
       <c r="F91" t="n">
-        <v>-3.406017667325496</v>
+        <v>-3.432935441968084</v>
       </c>
       <c r="G91" t="n">
-        <v>-2.69752769904549</v>
+        <v>-2.706076972801136</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-0.4145160578188368</v>
       </c>
       <c r="E92" t="n">
-        <v>-22.07303615136136</v>
+        <v>-22.03334028914525</v>
       </c>
       <c r="F92" t="n">
-        <v>-3.426428567455746</v>
+        <v>-3.439337578057688</v>
       </c>
       <c r="G92" t="n">
-        <v>-2.582655833912185</v>
+        <v>-2.598811735618875</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-0.1621759298896397</v>
       </c>
       <c r="E93" t="n">
-        <v>-24.06533115169535</v>
+        <v>-24.02486284361157</v>
       </c>
       <c r="F93" t="n">
-        <v>-3.62518281689599</v>
+        <v>-3.658057589331564</v>
       </c>
       <c r="G93" t="n">
-        <v>-2.555999905326431</v>
+        <v>-2.568777992899955</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>0.06776502235477595</v>
       </c>
       <c r="E94" t="n">
-        <v>-26.23297136398856</v>
+        <v>-26.19598560846069</v>
       </c>
       <c r="F94" t="n">
-        <v>-3.432634319002725</v>
+        <v>-3.461934892762508</v>
       </c>
       <c r="G94" t="n">
-        <v>-2.710790201824158</v>
+        <v>-2.727548349461567</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>0.2753413607077362</v>
       </c>
       <c r="E95" t="n">
-        <v>-28.40916085003743</v>
+        <v>-28.37034217211171</v>
       </c>
       <c r="F95" t="n">
-        <v>-3.93040367304515</v>
+        <v>-3.966918105670724</v>
       </c>
       <c r="G95" t="n">
-        <v>-2.937378687105911</v>
+        <v>-2.944317607612026</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>0.45776286597531</v>
       </c>
       <c r="E96" t="n">
-        <v>-30.45908816748069</v>
+        <v>-30.41123580059418</v>
       </c>
       <c r="F96" t="n">
-        <v>-3.911354372410438</v>
+        <v>-3.947973543458746</v>
       </c>
       <c r="G96" t="n">
-        <v>-3.270682532850573</v>
+        <v>-3.277870207110681</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>0.6159314385598627</v>
       </c>
       <c r="E97" t="n">
-        <v>-32.73032777216049</v>
+        <v>-32.67638748445258</v>
       </c>
       <c r="F97" t="n">
-        <v>-4.071983835975575</v>
+        <v>-4.100433410050647</v>
       </c>
       <c r="G97" t="n">
-        <v>-3.354839855517188</v>
+        <v>-3.362079898988663</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>0.7477386539387193</v>
       </c>
       <c r="E98" t="n">
-        <v>-35.22801184679078</v>
+        <v>-35.18048678747531</v>
       </c>
       <c r="F98" t="n">
-        <v>-4.345665334579017</v>
+        <v>-4.381446598245454</v>
       </c>
       <c r="G98" t="n">
-        <v>-3.782643943173429</v>
+        <v>-3.783874619640552</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>0.85545047923464</v>
       </c>
       <c r="E99" t="n">
-        <v>-37.62679666575467</v>
+        <v>-37.58185079009903</v>
       </c>
       <c r="F99" t="n">
-        <v>-4.207017847485139</v>
+        <v>-4.234550960361288</v>
       </c>
       <c r="G99" t="n">
-        <v>-4.169770245900428</v>
+        <v>-4.179157427037945</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>0.9328320827875345</v>
       </c>
       <c r="E100" t="n">
-        <v>-40.24754838709718</v>
+        <v>-40.20516860279852</v>
       </c>
       <c r="F100" t="n">
-        <v>-4.324756926940781</v>
+        <v>-4.355366730984736</v>
       </c>
       <c r="G100" t="n">
-        <v>-4.420409291502431</v>
+        <v>-4.429901211062683</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>0.9896944276444883</v>
       </c>
       <c r="E101" t="n">
-        <v>-42.68629091433402</v>
+        <v>-42.64630702145539</v>
       </c>
       <c r="F101" t="n">
-        <v>-4.479848346403868</v>
+        <v>-4.510536704264874</v>
       </c>
       <c r="G101" t="n">
-        <v>-4.927736026619317</v>
+        <v>-4.942543421133308</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>1.007254458316332</v>
       </c>
       <c r="E102" t="n">
-        <v>-45.05523837512163</v>
+        <v>-45.01118277605921</v>
       </c>
       <c r="F102" t="n">
-        <v>-4.570499451279979</v>
+        <v>-4.598870471538</v>
       </c>
       <c r="G102" t="n">
-        <v>-5.139360009752977</v>
+        <v>-5.143981592656106</v>
       </c>
     </row>
   </sheetData>
